--- a/BLACK_SUNRISE_YCbCr/45_Degree_GLCM/R_m.xlsx
+++ b/BLACK_SUNRISE_YCbCr/45_Degree_GLCM/R_m.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +335,2016 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.15625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>